--- a/biology/Botanique/Zygophyllum_fontanesii/Zygophyllum_fontanesii.xlsx
+++ b/biology/Botanique/Zygophyllum_fontanesii/Zygophyllum_fontanesii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tetraena fontanesii ou Zygophyllum fontanesii est une espèce de plantes de la famille des Zygophyllaceae originaire du Nord-Est de l'Afrique et de la Macaronésie.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Zygophyllum fontanesii Webb &amp; Berthel. (1836).
 Zygophyllum webbianum Coss. (1855)</t>
@@ -542,12 +556,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbuste succulent, halophile et xérophile haut de 50 centimètres[1];
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbuste succulent, halophile et xérophile haut de 50 centimètres;
 Feuilles sub-cylindriques de couleur vert glauque à jaune.
 Fleurs blanches à blanc rosé
-Fruit de 5 à 7 millimètres de diamètre[2].
+Fruit de 5 à 7 millimètres de diamètre.
 			Zygophyllum fontanesii à Lanzarote.
 			Floraison en mars
 			Branche en floraison et fructification.
@@ -580,7 +596,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Littoral des îles Canaries, de Madère, des îles du Cap-Vert, du Maroc, de Mauritanie et du nord du Sénégal.
 </t>
@@ -611,9 +629,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est comestible[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est comestible.
 </t>
         </is>
       </c>
